--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>212.4076363333334</v>
+        <v>338.6742503333333</v>
       </c>
       <c r="H2">
-        <v>637.2229090000001</v>
+        <v>1016.022751</v>
       </c>
       <c r="I2">
-        <v>0.5080632835800085</v>
+        <v>0.5849329800180821</v>
       </c>
       <c r="J2">
-        <v>0.5080632835800085</v>
+        <v>0.584932980018082</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>75.59011833333334</v>
+        <v>71.44418333333333</v>
       </c>
       <c r="N2">
-        <v>226.770355</v>
+        <v>214.33255</v>
       </c>
       <c r="O2">
-        <v>0.6588374259037486</v>
+        <v>0.6986063918429039</v>
       </c>
       <c r="P2">
-        <v>0.6588374259037486</v>
+        <v>0.6986063918429037</v>
       </c>
       <c r="Q2">
-        <v>16055.9183653403</v>
+        <v>24196.30523109389</v>
       </c>
       <c r="R2">
-        <v>144503.2652880627</v>
+        <v>217766.7470798451</v>
       </c>
       <c r="S2">
-        <v>0.3347311059500591</v>
+        <v>0.4086379186403498</v>
       </c>
       <c r="T2">
-        <v>0.3347311059500591</v>
+        <v>0.4086379186403496</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>212.4076363333334</v>
+        <v>338.6742503333333</v>
       </c>
       <c r="H3">
-        <v>637.2229090000001</v>
+        <v>1016.022751</v>
       </c>
       <c r="I3">
-        <v>0.5080632835800085</v>
+        <v>0.5849329800180821</v>
       </c>
       <c r="J3">
-        <v>0.5080632835800085</v>
+        <v>0.584932980018082</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>36.459301</v>
       </c>
       <c r="O3">
-        <v>0.1059254505338229</v>
+        <v>0.1188372961583501</v>
       </c>
       <c r="P3">
-        <v>0.1059254505338229</v>
+        <v>0.1188372961583501</v>
       </c>
       <c r="Q3">
-        <v>2581.411315925179</v>
+        <v>4115.942144617449</v>
       </c>
       <c r="R3">
-        <v>23232.70184332661</v>
+        <v>37043.47930155705</v>
       </c>
       <c r="S3">
-        <v>0.05381683221290585</v>
+        <v>0.0695118537791951</v>
       </c>
       <c r="T3">
-        <v>0.05381683221290584</v>
+        <v>0.06951185377919507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>212.4076363333334</v>
+        <v>338.6742503333333</v>
       </c>
       <c r="H4">
-        <v>637.2229090000001</v>
+        <v>1016.022751</v>
       </c>
       <c r="I4">
-        <v>0.5080632835800085</v>
+        <v>0.5849329800180821</v>
       </c>
       <c r="J4">
-        <v>0.5080632835800085</v>
+        <v>0.584932980018082</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.81662666666667</v>
+        <v>18.571964</v>
       </c>
       <c r="N4">
-        <v>80.44988000000001</v>
+        <v>55.715892</v>
       </c>
       <c r="O4">
-        <v>0.233731573306685</v>
+        <v>0.1816032062252276</v>
       </c>
       <c r="P4">
-        <v>0.233731573306685</v>
+        <v>0.1816032062252276</v>
       </c>
       <c r="Q4">
-        <v>5696.056284700103</v>
+        <v>6289.845984917653</v>
       </c>
       <c r="R4">
-        <v>51264.50656230093</v>
+        <v>56608.61386425888</v>
       </c>
       <c r="S4">
-        <v>0.1187504306105158</v>
+        <v>0.1062257045981607</v>
       </c>
       <c r="T4">
-        <v>0.1187504306105158</v>
+        <v>0.1062257045981607</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>212.4076363333334</v>
+        <v>338.6742503333333</v>
       </c>
       <c r="H5">
-        <v>637.2229090000001</v>
+        <v>1016.022751</v>
       </c>
       <c r="I5">
-        <v>0.5080632835800085</v>
+        <v>0.5849329800180821</v>
       </c>
       <c r="J5">
-        <v>0.5080632835800085</v>
+        <v>0.584932980018082</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1727356666666666</v>
+        <v>0.09747100000000002</v>
       </c>
       <c r="N5">
-        <v>0.518207</v>
+        <v>0.292413</v>
       </c>
       <c r="O5">
-        <v>0.001505550255743542</v>
+        <v>0.000953105773518577</v>
       </c>
       <c r="P5">
-        <v>0.001505550255743542</v>
+        <v>0.0009531057735185768</v>
       </c>
       <c r="Q5">
-        <v>36.69037466712922</v>
+        <v>33.01091785424033</v>
       </c>
       <c r="R5">
-        <v>330.213372004163</v>
+        <v>297.098260688163</v>
       </c>
       <c r="S5">
-        <v>0.0007649148065277855</v>
+        <v>0.0005575030003766605</v>
       </c>
       <c r="T5">
-        <v>0.0007649148065277855</v>
+        <v>0.0005575030003766603</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>485.815337</v>
       </c>
       <c r="I6">
-        <v>0.3873447295187379</v>
+        <v>0.279688040971731</v>
       </c>
       <c r="J6">
-        <v>0.3873447295187379</v>
+        <v>0.2796880409717309</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>75.59011833333334</v>
+        <v>71.44418333333333</v>
       </c>
       <c r="N6">
-        <v>226.770355</v>
+        <v>214.33255</v>
       </c>
       <c r="O6">
-        <v>0.6588374259037486</v>
+        <v>0.6986063918429039</v>
       </c>
       <c r="P6">
-        <v>0.6588374259037486</v>
+        <v>0.6986063918429037</v>
       </c>
       <c r="Q6">
-        <v>12240.9462706594</v>
+        <v>11569.56000092437</v>
       </c>
       <c r="R6">
-        <v>110168.5164359346</v>
+        <v>104126.0400083194</v>
       </c>
       <c r="S6">
-        <v>0.2551972045335091</v>
+        <v>0.1953918531448713</v>
       </c>
       <c r="T6">
-        <v>0.2551972045335091</v>
+        <v>0.1953918531448712</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>485.815337</v>
       </c>
       <c r="I7">
-        <v>0.3873447295187379</v>
+        <v>0.279688040971731</v>
       </c>
       <c r="J7">
-        <v>0.3873447295187379</v>
+        <v>0.2796880409717309</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>36.459301</v>
       </c>
       <c r="O7">
-        <v>0.1059254505338229</v>
+        <v>0.1188372961583501</v>
       </c>
       <c r="P7">
-        <v>0.1059254505338229</v>
+        <v>0.1188372961583501</v>
       </c>
       <c r="Q7">
         <v>1968.054178011048</v>
@@ -883,10 +883,10 @@
         <v>17712.48760209943</v>
       </c>
       <c r="S7">
-        <v>0.0410296649861741</v>
+        <v>0.03323737055690635</v>
       </c>
       <c r="T7">
-        <v>0.04102966498617409</v>
+        <v>0.03323737055690634</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>485.815337</v>
       </c>
       <c r="I8">
-        <v>0.3873447295187379</v>
+        <v>0.279688040971731</v>
       </c>
       <c r="J8">
-        <v>0.3873447295187379</v>
+        <v>0.2796880409717309</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.81662666666667</v>
+        <v>18.571964</v>
       </c>
       <c r="N8">
-        <v>80.44988000000001</v>
+        <v>55.715892</v>
       </c>
       <c r="O8">
-        <v>0.233731573306685</v>
+        <v>0.1816032062252276</v>
       </c>
       <c r="P8">
-        <v>0.233731573306685</v>
+        <v>0.1816032062252276</v>
       </c>
       <c r="Q8">
-        <v>4342.642840423285</v>
+        <v>3007.514983137289</v>
       </c>
       <c r="R8">
-        <v>39083.78556380956</v>
+        <v>27067.6348482356</v>
       </c>
       <c r="S8">
-        <v>0.09053469304246695</v>
+        <v>0.05079224498331917</v>
       </c>
       <c r="T8">
-        <v>0.09053469304246695</v>
+        <v>0.05079224498331916</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>485.815337</v>
       </c>
       <c r="I9">
-        <v>0.3873447295187379</v>
+        <v>0.279688040971731</v>
       </c>
       <c r="J9">
-        <v>0.3873447295187379</v>
+        <v>0.2796880409717309</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.1727356666666666</v>
+        <v>0.09747100000000002</v>
       </c>
       <c r="N9">
-        <v>0.518207</v>
+        <v>0.292413</v>
       </c>
       <c r="O9">
-        <v>0.001505550255743542</v>
+        <v>0.000953105773518577</v>
       </c>
       <c r="P9">
-        <v>0.001505550255743542</v>
+        <v>0.0009531057735185768</v>
       </c>
       <c r="Q9">
-        <v>27.97254537119544</v>
+        <v>15.78430223757567</v>
       </c>
       <c r="R9">
-        <v>251.752908340759</v>
+        <v>142.058720138181</v>
       </c>
       <c r="S9">
-        <v>0.0005831669565878491</v>
+        <v>0.0002665722866342572</v>
       </c>
       <c r="T9">
-        <v>0.0005831669565878491</v>
+        <v>0.000266572286634257</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.38855633333333</v>
+        <v>77.79536166666666</v>
       </c>
       <c r="H10">
-        <v>130.165669</v>
+        <v>233.386085</v>
       </c>
       <c r="I10">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="J10">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>75.59011833333334</v>
+        <v>71.44418333333333</v>
       </c>
       <c r="N10">
-        <v>226.770355</v>
+        <v>214.33255</v>
       </c>
       <c r="O10">
-        <v>0.6588374259037486</v>
+        <v>0.6986063918429039</v>
       </c>
       <c r="P10">
-        <v>0.6588374259037486</v>
+        <v>0.6986063918429037</v>
       </c>
       <c r="Q10">
-        <v>3279.746107549166</v>
+        <v>5558.026081396305</v>
       </c>
       <c r="R10">
-        <v>29517.71496794249</v>
+        <v>50022.23473256675</v>
       </c>
       <c r="S10">
-        <v>0.06837559937930499</v>
+        <v>0.09386640596399376</v>
       </c>
       <c r="T10">
-        <v>0.06837559937930499</v>
+        <v>0.09386640596399373</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>43.38855633333333</v>
+        <v>77.79536166666666</v>
       </c>
       <c r="H11">
-        <v>130.165669</v>
+        <v>233.386085</v>
       </c>
       <c r="I11">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="J11">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>36.459301</v>
       </c>
       <c r="O11">
-        <v>0.1059254505338229</v>
+        <v>0.1188372961583501</v>
       </c>
       <c r="P11">
-        <v>0.1059254505338229</v>
+        <v>0.1188372961583501</v>
       </c>
       <c r="Q11">
-        <v>527.3054784374855</v>
+        <v>945.4548358029538</v>
       </c>
       <c r="R11">
-        <v>4745.749305937369</v>
+        <v>8509.093522226585</v>
       </c>
       <c r="S11">
-        <v>0.01099317659411652</v>
+        <v>0.01596725998374696</v>
       </c>
       <c r="T11">
-        <v>0.01099317659411652</v>
+        <v>0.01596725998374695</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.38855633333333</v>
+        <v>77.79536166666666</v>
       </c>
       <c r="H12">
-        <v>130.165669</v>
+        <v>233.386085</v>
       </c>
       <c r="I12">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="J12">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.81662666666667</v>
+        <v>18.571964</v>
       </c>
       <c r="N12">
-        <v>80.44988000000001</v>
+        <v>55.715892</v>
       </c>
       <c r="O12">
-        <v>0.233731573306685</v>
+        <v>0.1816032062252276</v>
       </c>
       <c r="P12">
-        <v>0.233731573306685</v>
+        <v>0.1816032062252276</v>
       </c>
       <c r="Q12">
-        <v>1163.534716796636</v>
+        <v>1444.812656240313</v>
       </c>
       <c r="R12">
-        <v>10471.81245116972</v>
+        <v>13003.31390616282</v>
       </c>
       <c r="S12">
-        <v>0.02425717755300582</v>
+        <v>0.02440063600754077</v>
       </c>
       <c r="T12">
-        <v>0.02425717755300582</v>
+        <v>0.02440063600754076</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.38855633333333</v>
+        <v>77.79536166666666</v>
       </c>
       <c r="H13">
-        <v>130.165669</v>
+        <v>233.386085</v>
       </c>
       <c r="I13">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="J13">
-        <v>0.1037822028484675</v>
+        <v>0.1343623634996766</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1727356666666666</v>
+        <v>0.09747100000000002</v>
       </c>
       <c r="N13">
-        <v>0.518207</v>
+        <v>0.292413</v>
       </c>
       <c r="O13">
-        <v>0.001505550255743542</v>
+        <v>0.000953105773518577</v>
       </c>
       <c r="P13">
-        <v>0.001505550255743542</v>
+        <v>0.0009531057735185768</v>
       </c>
       <c r="Q13">
-        <v>7.494751203942555</v>
+        <v>7.582791697011667</v>
       </c>
       <c r="R13">
-        <v>67.45276083548301</v>
+        <v>68.245125273105</v>
       </c>
       <c r="S13">
-        <v>0.0001562493220401383</v>
+        <v>0.0001280615443951435</v>
       </c>
       <c r="T13">
-        <v>0.0001562493220401383</v>
+        <v>0.0001280615443951434</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.338549</v>
+        <v>0.5886170000000001</v>
       </c>
       <c r="H14">
-        <v>1.015647</v>
+        <v>1.765851</v>
       </c>
       <c r="I14">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510267</v>
       </c>
       <c r="J14">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510266</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>75.59011833333334</v>
+        <v>71.44418333333333</v>
       </c>
       <c r="N14">
-        <v>226.770355</v>
+        <v>214.33255</v>
       </c>
       <c r="O14">
-        <v>0.6588374259037486</v>
+        <v>0.6986063918429039</v>
       </c>
       <c r="P14">
-        <v>0.6588374259037486</v>
+        <v>0.6986063918429037</v>
       </c>
       <c r="Q14">
-        <v>25.59095897163167</v>
+        <v>42.05326086111667</v>
       </c>
       <c r="R14">
-        <v>230.318630744685</v>
+        <v>378.47934775005</v>
       </c>
       <c r="S14">
-        <v>0.0005335160408755166</v>
+        <v>0.0007102140936891091</v>
       </c>
       <c r="T14">
-        <v>0.0005335160408755166</v>
+        <v>0.0007102140936891088</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.338549</v>
+        <v>0.5886170000000001</v>
       </c>
       <c r="H15">
-        <v>1.015647</v>
+        <v>1.765851</v>
       </c>
       <c r="I15">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510267</v>
       </c>
       <c r="J15">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510266</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>36.459301</v>
       </c>
       <c r="O15">
-        <v>0.1059254505338229</v>
+        <v>0.1188372961583501</v>
       </c>
       <c r="P15">
-        <v>0.1059254505338229</v>
+        <v>0.1188372961583501</v>
       </c>
       <c r="Q15">
-        <v>4.114419964749667</v>
+        <v>7.153521458905667</v>
       </c>
       <c r="R15">
-        <v>37.029779682747</v>
+        <v>64.38169313015099</v>
       </c>
       <c r="S15">
-        <v>8.577674062647546E-05</v>
+        <v>0.0001208118385016808</v>
       </c>
       <c r="T15">
-        <v>8.577674062647545E-05</v>
+        <v>0.0001208118385016808</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.338549</v>
+        <v>0.5886170000000001</v>
       </c>
       <c r="H16">
-        <v>1.015647</v>
+        <v>1.765851</v>
       </c>
       <c r="I16">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510267</v>
       </c>
       <c r="J16">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510266</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>26.81662666666667</v>
+        <v>18.571964</v>
       </c>
       <c r="N16">
-        <v>80.44988000000001</v>
+        <v>55.715892</v>
       </c>
       <c r="O16">
-        <v>0.233731573306685</v>
+        <v>0.1816032062252276</v>
       </c>
       <c r="P16">
-        <v>0.233731573306685</v>
+        <v>0.1816032062252276</v>
       </c>
       <c r="Q16">
-        <v>9.078742141373333</v>
+        <v>10.931773733788</v>
       </c>
       <c r="R16">
-        <v>81.70867927236</v>
+        <v>98.385963604092</v>
       </c>
       <c r="S16">
-        <v>0.0001892721006963649</v>
+        <v>0.000184620636206961</v>
       </c>
       <c r="T16">
-        <v>0.0001892721006963649</v>
+        <v>0.0001846206362069609</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.338549</v>
+        <v>0.5886170000000001</v>
       </c>
       <c r="H17">
-        <v>1.015647</v>
+        <v>1.765851</v>
       </c>
       <c r="I17">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510267</v>
       </c>
       <c r="J17">
-        <v>0.0008097840527861261</v>
+        <v>0.001016615510510266</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1727356666666666</v>
+        <v>0.09747100000000002</v>
       </c>
       <c r="N17">
-        <v>0.518207</v>
+        <v>0.292413</v>
       </c>
       <c r="O17">
-        <v>0.001505550255743542</v>
+        <v>0.000953105773518577</v>
       </c>
       <c r="P17">
-        <v>0.001505550255743542</v>
+        <v>0.0009531057735185768</v>
       </c>
       <c r="Q17">
-        <v>0.05847948721433333</v>
+        <v>0.05737308760700002</v>
       </c>
       <c r="R17">
-        <v>0.526315384929</v>
+        <v>0.5163577884630001</v>
       </c>
       <c r="S17">
-        <v>1.219170587769194E-06</v>
+        <v>9.689421125158708E-07</v>
       </c>
       <c r="T17">
-        <v>1.219170587769194E-06</v>
+        <v>9.689421125158704E-07</v>
       </c>
     </row>
   </sheetData>
